--- a/database/tb_kriteria.xlsx
+++ b/database/tb_kriteria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,6 +439,11 @@
           <t>kriteria</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>jenis_kriteria</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -446,6 +451,11 @@
           <t>Kecepatan</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>benefit</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -453,6 +463,11 @@
           <t>Kestabilan</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>benefit</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -460,11 +475,21 @@
           <t>Harga</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>benefit</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
           <t>Pelayanan</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>benefit</t>
         </is>
       </c>
     </row>

--- a/database/tb_kriteria.xlsx
+++ b/database/tb_kriteria.xlsx
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>benefit</t>
+          <t>cost</t>
         </is>
       </c>
     </row>

--- a/database/tb_kriteria.xlsx
+++ b/database/tb_kriteria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,30 +469,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Harga</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>cost</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Pelayanan</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>benefit</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/tb_kriteria.xlsx
+++ b/database/tb_kriteria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,30 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Harga</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>cost</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pelayanan</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>benefit</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/tb_kriteria.xlsx
+++ b/database/tb_kriteria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,10 +436,15 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>kode_kriteria</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>kriteria</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>jenis_kriteria</t>
         </is>
@@ -448,10 +453,15 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>Kecepatan</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>benefit</t>
         </is>
@@ -460,10 +470,15 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Kestabilan</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>benefit</t>
         </is>
@@ -472,10 +487,15 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>Harga</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>cost</t>
         </is>
@@ -484,10 +504,15 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>Pelayanan</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>benefit</t>
         </is>

--- a/database/tb_kriteria.xlsx
+++ b/database/tb_kriteria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,12 +453,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kecepatan</t>
+          <t>Kestabilan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -470,49 +470,32 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kestabilan</t>
+          <t>Harga</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>benefit</t>
+          <t>cost</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Harga</t>
+          <t>Pelayanan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
-        <is>
-          <t>cost</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Pelayanan</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
         <is>
           <t>benefit</t>
         </is>

--- a/database/tb_kriteria.xlsx
+++ b/database/tb_kriteria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,12 +453,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kestabilan</t>
+          <t>Kecepatan Sinyal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -470,32 +470,49 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Harga</t>
+          <t>Kestabilan Sinyal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>cost</t>
+          <t>benefit</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Harga</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>cost</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>C4</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Pelayanan</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pelayanan Operator</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>benefit</t>
         </is>
